--- a/input.xlsx
+++ b/input.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
+    <sheet name="Input_S&amp;T" sheetId="1" r:id="rId1"/>
+    <sheet name="Input_AC" sheetId="3" r:id="rId2"/>
+    <sheet name="Foglio1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
   <si>
     <t>Category</t>
   </si>
@@ -313,7 +314,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -338,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -649,7 +653,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -659,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -701,7 +705,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -718,7 +722,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="9"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -733,7 +737,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="9"/>
+      <c r="A5" s="10"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
@@ -748,7 +752,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="9"/>
+      <c r="A6" s="10"/>
       <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
@@ -759,7 +763,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="9"/>
+      <c r="A7" s="10"/>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -772,7 +776,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="9"/>
+      <c r="A8" s="10"/>
       <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
@@ -783,7 +787,7 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="9"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -798,7 +802,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -815,7 +819,7 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="9"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,23 +829,23 @@
       <c r="D11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>38</v>
+      <c r="E11" s="1">
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="9"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
-        <v>38</v>
+      <c r="E12" s="1">
+        <v>313</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="9"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,23 +853,23 @@
         <v>30</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
-        <v>0.2</v>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>0.3</v>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="9"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1112,11 +1116,465 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" customHeight="1">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="10"/>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="10"/>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="1">
+        <v>101325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="10"/>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="105">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C16" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/input.xlsx
+++ b/input.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="75">
   <si>
     <t>Category</t>
   </si>
@@ -226,6 +226,36 @@
   </si>
   <si>
     <t>Tube Surface roughness</t>
+  </si>
+  <si>
+    <t>2-2.5-3</t>
+  </si>
+  <si>
+    <t>n° row</t>
+  </si>
+  <si>
+    <t>Root diameter</t>
+  </si>
+  <si>
+    <t>Fins density</t>
+  </si>
+  <si>
+    <t>Fins height</t>
+  </si>
+  <si>
+    <t>Fins thickness</t>
+  </si>
+  <si>
+    <t>Draft</t>
+  </si>
+  <si>
+    <t>induced</t>
+  </si>
+  <si>
+    <t>1/m</t>
+  </si>
+  <si>
+    <t>Conductivity fins</t>
   </si>
 </sst>
 </file>
@@ -1116,19 +1146,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1">
@@ -1338,7 +1369,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="105">
+    <row r="16" spans="1:5" ht="45">
       <c r="A16" s="9"/>
       <c r="B16" s="9" t="s">
         <v>16</v>
@@ -1408,44 +1439,46 @@
     <row r="21" spans="1:5">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>39</v>
+      <c r="E21" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E22" s="1">
-        <v>2</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
         <v>2</v>
@@ -1454,106 +1487,100 @@
     <row r="25" spans="1:5">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E25" s="1">
-        <v>0.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
       <c r="B27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
       <c r="B28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1">
-        <v>1.25</v>
+        <v>68</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
       <c r="B29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>69</v>
+      </c>
       <c r="D29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1">
-        <v>0.2</v>
+        <v>70</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="E31" s="1">
-        <v>20</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>45</v>
       </c>
       <c r="E32" s="1">
-        <v>5.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="B34" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E34" s="5">
         <v>45</v>
-      </c>
-      <c r="E33" s="1">
-        <v>9.9999999999999995E-7</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Input_S&amp;T" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="78">
   <si>
     <t>Category</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>Conductivity fins</t>
+  </si>
+  <si>
+    <t>shell</t>
+  </si>
+  <si>
+    <t>Tube update</t>
+  </si>
+  <si>
+    <t>update nt</t>
   </si>
 </sst>
 </file>
@@ -683,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -691,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -731,7 +740,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -748,7 +757,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -763,7 +772,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="1">
-        <v>1000000</v>
+        <v>101325</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -778,7 +787,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="1">
-        <v>403</v>
+        <v>363.15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -789,7 +798,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <v>393</v>
+        <v>343.15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -860,7 +869,7 @@
         <v>27</v>
       </c>
       <c r="E11" s="1">
-        <v>293</v>
+        <v>303.14999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -871,7 +880,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <v>313</v>
+        <v>311.14999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -925,7 +934,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="1">
-        <v>300</v>
+        <v>785</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -940,7 +949,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="1">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -955,7 +964,7 @@
         <v>28</v>
       </c>
       <c r="E18" s="1">
-        <v>10000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1023,7 +1032,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1036,7 +1045,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="1">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1069,7 +1078,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1">
-        <v>1.25</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1082,7 +1091,7 @@
         <v>45</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1093,7 +1102,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1">
-        <v>0.2</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1104,7 +1113,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1129,6 +1138,14 @@
       </c>
       <c r="E33" s="1">
         <v>9.9999999999999995E-7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1148,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
